--- a/components/mjd_tmp36/_doc/TMP36 formula volt to temp celsius.xlsx
+++ b/components/mjd_tmp36/_doc/TMP36 formula volt to temp celsius.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="TMP36" sheetId="1" r:id="rId1"/>
+    <sheet name="MCP9701A (new)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>ADC Volt</t>
   </si>
@@ -47,13 +48,41 @@
   </si>
   <si>
     <t xml:space="preserve">TMP36 The voltage should be about 0.75V at room temperature (25°C). </t>
+  </si>
+  <si>
+    <t>FORMULA =&gt; Temp in °C = [(Vout in mV) - 400mV] / 19.53mV</t>
+  </si>
+  <si>
+    <t>Sensor offset: 400 mV</t>
+  </si>
+  <si>
+    <t>MICROCHIP SENSOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The voltage should be approx. 0.889V at room temperature (25°C). </t>
+  </si>
+  <si>
+    <t>minimum!</t>
+  </si>
+  <si>
+    <t>maximum!</t>
+  </si>
+  <si>
+    <t>how to calibrate?</t>
+  </si>
+  <si>
+    <t>Sensor scale factor: 19.53 mV/°C [=better: wider mV per °C compared to the 10mV/°C of the TMP36]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +100,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -104,13 +141,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -407,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -458,7 +500,7 @@
         <f t="shared" ref="B8:B13" si="0">A8*1000</f>
         <v>250</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="8">
         <f t="shared" ref="C8:C13" si="1">(B8-500) / 10</f>
         <v>-25</v>
       </c>
@@ -474,7 +516,7 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -487,7 +529,7 @@
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="8">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -503,7 +545,7 @@
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="8">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -516,43 +558,49 @@
         <f t="shared" si="0"/>
         <v>1250</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="8">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" ref="B14" si="2">A14*1000</f>
         <v>1750</v>
       </c>
-      <c r="C13" s="4">
-        <f t="shared" si="1"/>
+      <c r="C14" s="8">
+        <f t="shared" ref="C14" si="3">(B14-500) / 10</f>
         <v>125</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="B15" s="5">
-        <f>A15*1000</f>
-        <v>800</v>
-      </c>
-      <c r="C15" s="5">
-        <f>(B15-500) / 10</f>
-        <v>30</v>
+      <c r="A15" s="3"/>
+      <c r="B15" s="4">
+        <f t="shared" ref="B15" si="4">A15*1000</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" ref="C15" si="5">(B15-500) / 10</f>
+        <v>-50</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -563,7 +611,7 @@
         <f>A16*1000</f>
         <v>780</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="9">
         <f>(B16-500) / 10</f>
         <v>28</v>
       </c>
@@ -576,7 +624,7 @@
         <f>A17*1000</f>
         <v>760</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="9">
         <f>(B17-500) / 10</f>
         <v>26</v>
       </c>
@@ -589,7 +637,7 @@
         <f>A18*1000</f>
         <v>740</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="9">
         <f>(B18-500) / 10</f>
         <v>24</v>
       </c>
@@ -599,11 +647,11 @@
         <v>0.73</v>
       </c>
       <c r="B19" s="5">
-        <f t="shared" ref="B19:B22" si="2">A19*1000</f>
+        <f t="shared" ref="B19:B22" si="6">A19*1000</f>
         <v>730</v>
       </c>
-      <c r="C19" s="5">
-        <f t="shared" ref="C19:C22" si="3">(B19-500) / 10</f>
+      <c r="C19" s="9">
+        <f t="shared" ref="C19:C22" si="7">(B19-500) / 10</f>
         <v>23</v>
       </c>
     </row>
@@ -612,11 +660,11 @@
         <v>0.72</v>
       </c>
       <c r="B20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>720</v>
       </c>
-      <c r="C20" s="5">
-        <f t="shared" si="3"/>
+      <c r="C20" s="9">
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
     </row>
@@ -625,11 +673,11 @@
         <v>0.71</v>
       </c>
       <c r="B21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>710</v>
       </c>
-      <c r="C21" s="5">
-        <f t="shared" si="3"/>
+      <c r="C21" s="9">
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
     </row>
@@ -638,11 +686,11 @@
         <v>0.7</v>
       </c>
       <c r="B22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>700</v>
       </c>
-      <c r="C22" s="5">
-        <f t="shared" si="3"/>
+      <c r="C22" s="9">
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -654,7 +702,7 @@
         <f>A23*1000</f>
         <v>690</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="9">
         <f>(B23-500) / 10</f>
         <v>19</v>
       </c>
@@ -667,7 +715,7 @@
         <f>A24*1000</f>
         <v>670</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="9">
         <f>(B24-500) / 10</f>
         <v>17</v>
       </c>
@@ -680,7 +728,7 @@
         <f>A25*1000</f>
         <v>610</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="9">
         <f>(B25-500) / 10</f>
         <v>11</v>
       </c>
@@ -693,7 +741,7 @@
         <f>A26*1000</f>
         <v>590</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="9">
         <f>(B26-500) / 10</f>
         <v>9</v>
       </c>
@@ -706,7 +754,7 @@
         <f>A27*1000</f>
         <v>580</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="9">
         <f>(B27-500) / 10</f>
         <v>8</v>
       </c>
@@ -714,78 +762,484 @@
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
       <c r="B28" s="5">
-        <f t="shared" ref="B28:B34" si="4">A28*1000</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="5">
-        <f t="shared" ref="C28:C34" si="5">(B28-500) / 10</f>
+        <f t="shared" ref="B28:B34" si="8">A28*1000</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="9">
+        <f t="shared" ref="C28:C34" si="9">(B28-500) / 10</f>
         <v>-50</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3"/>
       <c r="B29" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="9">
+        <f t="shared" si="9"/>
         <v>-50</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3"/>
       <c r="B30" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C30" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="9">
+        <f t="shared" si="9"/>
         <v>-50</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3"/>
       <c r="B31" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C31" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="9">
+        <f t="shared" si="9"/>
         <v>-50</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3"/>
       <c r="B32" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="9">
+        <f t="shared" si="9"/>
         <v>-50</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3"/>
       <c r="B33" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="9">
+        <f t="shared" si="9"/>
         <v>-50</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3"/>
       <c r="B34" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="9">
+        <f t="shared" si="9"/>
+        <v>-50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27.75" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" ref="B8" si="0">A8*1000</f>
+        <v>200</v>
+      </c>
+      <c r="C8" s="8">
+        <f>(B8-400) / 19.53</f>
+        <v>-10.240655401945723</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" ref="B9:B15" si="1">A9*1000</f>
+        <v>250</v>
+      </c>
+      <c r="C9" s="8">
+        <f>(B9-400) / 19.53</f>
+        <v>-7.6804915514592933</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" ref="C10:C35" si="2">(B10-400) / 19.53</f>
+        <v>5.1203277009728616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="2"/>
+        <v>17.921146953405017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="2"/>
+        <v>30.721966205837173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="B13" s="4">
+        <f t="shared" si="1"/>
+        <v>1250</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="2"/>
+        <v>43.522785458269325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" si="2"/>
+        <v>56.323604710701481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" si="1"/>
+        <v>1750</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" si="2"/>
+        <v>69.124423963133637</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5">
+        <f>A16*1000</f>
+        <v>2000</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" si="2"/>
+        <v>81.925243215565786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7">
+        <v>2.25</v>
+      </c>
+      <c r="B17" s="5">
+        <f>A17*1000</f>
+        <v>2250</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" si="2"/>
+        <v>94.726062467997949</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="B18" s="5">
+        <f>A18*1000</f>
+        <v>2500</v>
+      </c>
+      <c r="C18" s="8">
+        <f t="shared" si="2"/>
+        <v>107.5268817204301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="7">
+        <v>2.76</v>
+      </c>
+      <c r="B19" s="5">
+        <f>A19*1000</f>
+        <v>2760</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" si="2"/>
+        <v>120.83973374295954</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7">
+        <v>2.85</v>
+      </c>
+      <c r="B20" s="5">
+        <f>A20*1000</f>
+        <v>2850</v>
+      </c>
+      <c r="C20" s="8">
+        <f t="shared" si="2"/>
+        <v>125.44802867383511</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="7">
+        <v>3</v>
+      </c>
+      <c r="B21" s="5">
+        <f t="shared" ref="B21:B23" si="3">A21*1000</f>
+        <v>3000</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" si="2"/>
+        <v>133.12852022529441</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7"/>
+      <c r="B22" s="5">
+        <f>A22*1000</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="2"/>
+        <v>-20.481310803891446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="7">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" si="3"/>
+        <v>889</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" si="2"/>
+        <v>25.038402457757297</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="B24" s="5">
+        <f>A24*1000</f>
+        <v>5500</v>
+      </c>
+      <c r="C24" s="8">
+        <f t="shared" si="2"/>
+        <v>261.13671274961598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="7"/>
+      <c r="B25" s="5">
+        <f>A25*1000</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="8">
+        <f t="shared" si="2"/>
+        <v>-20.481310803891446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="7"/>
+      <c r="B26" s="5">
+        <f>A26*1000</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="8">
+        <f t="shared" si="2"/>
+        <v>-20.481310803891446</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="7"/>
+      <c r="B27" s="5">
+        <f>A27*1000</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="8">
+        <f t="shared" si="2"/>
+        <v>-20.481310803891446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="7"/>
+      <c r="B28" s="5">
+        <f>A28*1000</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="8">
+        <f t="shared" si="2"/>
+        <v>-20.481310803891446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="7"/>
+      <c r="B29" s="5">
+        <f t="shared" ref="B29:B35" si="4">A29*1000</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="8">
+        <f t="shared" si="2"/>
+        <v>-20.481310803891446</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="7"/>
+      <c r="B30" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C34" s="5">
-        <f t="shared" si="5"/>
-        <v>-50</v>
+      <c r="C30" s="8">
+        <f t="shared" si="2"/>
+        <v>-20.481310803891446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="7"/>
+      <c r="B31" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="8">
+        <f t="shared" si="2"/>
+        <v>-20.481310803891446</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="7"/>
+      <c r="B32" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="8">
+        <f t="shared" si="2"/>
+        <v>-20.481310803891446</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="8">
+        <f t="shared" si="2"/>
+        <v>-20.481310803891446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="8">
+        <f t="shared" si="2"/>
+        <v>-20.481310803891446</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="8">
+        <f t="shared" si="2"/>
+        <v>-20.481310803891446</v>
       </c>
     </row>
   </sheetData>
